--- a/leica_matrixscreener/04_DMI6000_TC/renamed_deflate/settings_channels.xlsx
+++ b/leica_matrixscreener/04_DMI6000_TC/renamed_deflate/settings_channels.xlsx
@@ -1,356 +1,356 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="channels_J07" r:id="rId3" sheetId="1"/>
-    <sheet name="channels_J08" r:id="rId4" sheetId="2"/>
+    <sheet name="channels_J07" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="channels_J08" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="109">
-  <si>
-    <t>C00</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>FluoCubePos</t>
-  </si>
-  <si>
-    <t>Intensity</t>
-  </si>
-  <si>
-    <t>IntensityMode</t>
-  </si>
-  <si>
-    <t>ExposureTime</t>
-  </si>
-  <si>
-    <t>ContrastingMethodName</t>
-  </si>
-  <si>
-    <t>ContrastingMethod</t>
-  </si>
-  <si>
-    <t>Gain</t>
-  </si>
-  <si>
-    <t>GainString</t>
-  </si>
-  <si>
-    <t>EMGain</t>
-  </si>
-  <si>
-    <t>SpinDiskFilterSetPosition</t>
-  </si>
-  <si>
-    <t>SpinDiskUse</t>
-  </si>
-  <si>
-    <t>FluoChromeName</t>
-  </si>
-  <si>
-    <t>UserDefName</t>
-  </si>
-  <si>
-    <t>FluoCubeName</t>
-  </si>
-  <si>
-    <t>DyeName</t>
-  </si>
-  <si>
-    <t>LUT</t>
-  </si>
-  <si>
-    <t>BackgroundLUT</t>
-  </si>
-  <si>
-    <t>BlackValue</t>
-  </si>
-  <si>
-    <t>WhiteValue</t>
-  </si>
-  <si>
-    <t>GammaValue</t>
-  </si>
-  <si>
-    <t>SpinDiskFilterSetName</t>
-  </si>
-  <si>
-    <t>ColorGainValueR</t>
-  </si>
-  <si>
-    <t>ColorGainValueG</t>
-  </si>
-  <si>
-    <t>ColorGainValueB</t>
-  </si>
-  <si>
-    <t>WhiteBalanceBaseValueR</t>
-  </si>
-  <si>
-    <t>WhiteBalanceBaseValueG</t>
-  </si>
-  <si>
-    <t>WhiteBalanceBaseValueB</t>
-  </si>
-  <si>
-    <t>ColorWheelValueR</t>
-  </si>
-  <si>
-    <t>ColorWheelValueG</t>
-  </si>
-  <si>
-    <t>ColorWheelValueB</t>
-  </si>
-  <si>
-    <t>FFW_Excitation1Position</t>
-  </si>
-  <si>
-    <t>FFW_Excitation2Position</t>
-  </si>
-  <si>
-    <t>FFW_Emission1Position</t>
-  </si>
-  <si>
-    <t>FFW_Emission2Position</t>
-  </si>
-  <si>
-    <t>FFW_Excitation1FilterName</t>
-  </si>
-  <si>
-    <t>FFW_Excitation2FilterName</t>
-  </si>
-  <si>
-    <t>FFW_Emission1FilterName</t>
-  </si>
-  <si>
-    <t>FFW_Emission2FilterName</t>
-  </si>
-  <si>
-    <t>TL_Light-Intensity</t>
-  </si>
-  <si>
-    <t>IL_Light-Intensity</t>
-  </si>
-  <si>
-    <t>TL_Shutter</t>
-  </si>
-  <si>
-    <t>IL_Shutter</t>
-  </si>
-  <si>
-    <t>FieldDiaphragmValue</t>
-  </si>
-  <si>
-    <t>ApertureDiaphragmValue</t>
-  </si>
-  <si>
-    <t>OnlineShadingCorrectionReferenceID</t>
-  </si>
-  <si>
-    <t>OnlineShadingCorrectionReferenceParentID</t>
-  </si>
-  <si>
-    <t>FilteredOnlineShadingCorrectionReferenceID</t>
-  </si>
-  <si>
-    <t>OnlineShadingCorrectionDefinitionState</t>
-  </si>
-  <si>
-    <t>OnlineShadingCorrectionReferenceImageName</t>
-  </si>
-  <si>
-    <t>TIRF_WaveLength</t>
-  </si>
-  <si>
-    <t>TIRF_Azimuth</t>
-  </si>
-  <si>
-    <t>TIRF_PenetrationDepthIndex</t>
-  </si>
-  <si>
-    <t>TIRF_Aperture</t>
-  </si>
-  <si>
-    <t>TIRF_PenetrationDepthFromAperture</t>
-  </si>
-  <si>
-    <t>TIRF_PenetrationDepth</t>
-  </si>
-  <si>
-    <t>TIRF_FastIlluminationSwitchingMode</t>
-  </si>
-  <si>
-    <t>TIRF_LaserIntensity</t>
-  </si>
-  <si>
-    <t>ILLEDMaxUsedChannels</t>
-  </si>
-  <si>
-    <t>ILLEDIsValid</t>
-  </si>
-  <si>
-    <t>TIRFFastIlluminationSwitchingMode</t>
-  </si>
-  <si>
-    <t>AFCApplicable</t>
-  </si>
-  <si>
-    <t>GIST_BackpumpingIntensity</t>
-  </si>
-  <si>
-    <t>GIST_BackpumpingEnabled</t>
-  </si>
-  <si>
-    <t>DICPos</t>
-  </si>
-  <si>
-    <t>DICLensName</t>
-  </si>
-  <si>
-    <t>CondenserPos</t>
-  </si>
-  <si>
-    <t>CondenserLensName</t>
-  </si>
-  <si>
-    <t>ObliqueMode</t>
-  </si>
-  <si>
-    <t>ObliqueValue</t>
-  </si>
-  <si>
-    <t>LASXversion</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>0.025</t>
-  </si>
-  <si>
-    <t>FLUO</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>new 1</t>
-  </si>
-  <si>
-    <t>YFP</t>
-  </si>
-  <si>
-    <t>Gray</t>
-  </si>
-  <si>
-    <t>2.41702906843671E-02</t>
-  </si>
-  <si>
-    <t>6.98100251773861E-02</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3.1.0.15537</t>
-  </si>
-  <si>
-    <t>C01</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>0.015</t>
-  </si>
-  <si>
-    <t>TL-BF</t>
-  </si>
-  <si>
-    <t>new 3_0</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>2.72373540856031E-02</t>
-  </si>
-  <si>
-    <t>0.8917006465842</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>BF</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>new 3</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>8.06230408563943E-03</t>
-  </si>
-  <si>
-    <t>12</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FluoCubePos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intensity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntensityMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExposureTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContrastingMethodName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLUO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContrastingMethod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GainString</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMGain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpinDiskFilterSetPosition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpinDiskUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FluoChromeName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserDefName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FluoCubeName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DyeName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackgroundLUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41702906843671E-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WhiteValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98100251773861E-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GammaValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpinDiskFilterSetName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColorGainValueR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColorGainValueG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColorGainValueB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WhiteBalanceBaseValueR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WhiteBalanceBaseValueG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WhiteBalanceBaseValueB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColorWheelValueR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColorWheelValueG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColorWheelValueB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFW_Excitation1Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFW_Excitation2Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFW_Emission1Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFW_Emission2Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFW_Excitation1FilterName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFW_Excitation2FilterName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFW_Emission1FilterName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFW_Emission2FilterName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL_Light-Intensity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL_Light-Intensity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL_Shutter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL_Shutter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FieldDiaphragmValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ApertureDiaphragmValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnlineShadingCorrectionReferenceID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnlineShadingCorrectionReferenceParentID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FilteredOnlineShadingCorrectionReferenceID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnlineShadingCorrectionDefinitionState</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnlineShadingCorrectionReferenceImageName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIRF_WaveLength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIRF_Azimuth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIRF_PenetrationDepthIndex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIRF_Aperture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIRF_PenetrationDepthFromAperture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIRF_PenetrationDepth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIRF_FastIlluminationSwitchingMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIRF_LaserIntensity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILLEDMaxUsedChannels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILLEDIsValid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIRFFastIlluminationSwitchingMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFCApplicable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIST_BackpumpingIntensity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIST_BackpumpingEnabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DICPos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DICLensName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CondenserPos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CondenserLensName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ObliqueMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ObliqueValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LASXversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.0.15537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL-BF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new 3_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72373540856031E-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06230408563943E-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8917006465842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -361,7 +361,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -379,608 +379,894 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>94</v>
@@ -988,777 +1274,777 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
         <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C69" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C71" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
         <v>93</v>
@@ -1768,6 +2054,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>